--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_31.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,493 +488,496 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4166666666666666</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(10.2, 29.8)]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(6.74, 21.54)]</t>
+          <t>[('0:00:02.612267', '0:00:20.410362')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:00.040000', '0:01:10.960000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(3.1, 5.58), (0.5, 3.9)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (28.8, 36.86)]</t>
+          <t>[('0:00:02.060000', '0:00:23.220000'), ('0:00:57.580000', '0:01:19.360000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:00.260000', '0:00:23.340000'), ('0:01:01.440000', '0:01:25.440000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(5.02, 8.8)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1168269230769231</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'A:min7'], ['G/3', 'C', 'G']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(65.02, 68.08), (16.92, 23.9)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(14.565283, 18.936988), (13.079206, 17.500916)]</t>
+          <t>[('0:01:15.560000', '0:01:35.680000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>[('0:02:02.780000', '0:02:05')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.875</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(7.7, 12.06)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:maj/A', 'D:min/A', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'D:min', 'A']]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(3.1, 13.5)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(12.823786, 18.895804)]</t>
+          <t>[('0:01:06.880000', '0:01:14.940000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>[('0:00:59.260000', '0:01:01.360000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>0.1348837209302326</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(7.4, 18.24)]</t>
+          <t>[('0:00:01.440000', '0:00:06.840000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(14.52, 59.04)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(13.52, 51.46)]</t>
+          <t>[('0:01:59.320000', '0:02:01.920000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:27', '0:00:56.920000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>schubert-winterreise_138</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(37.76, 53.02)]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(11.5, 37.58)]</t>
+          <t>[('0:01:36.740000', '0:01:48.820000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:01:36.660000', '0:01:46.300000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(41.38, 43.34)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.36, 5.6)]</t>
+          <t>[('0:00:00.380000', '0:02:22.380000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:01.540000', '0:02:18.860000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
@@ -978,227 +986,186 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4444444444444444</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['F', 'C/3', 'F', 'C/3', 'F', 'C/3', 'F']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(8.46, 13.46)]</t>
+          <t>[('0:01:16.132993', '0:01:19.523105')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:14.784000', '0:02:21.453000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.3, 20.7)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.22, 21.94)]</t>
+          <t>[('0:00:03.820000', '0:00:08.620000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>[('0:00:08.200000', '0:00:23.600000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>isophonics_244</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>0.0882943143812709</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[['F', 'F/7', 'D:min']]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>[['G:maj', 'G:maj', 'E:min']]</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>[['E', 'E/7', 'C#:min']]</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>[(10.46, 19.06)]</t>
-        </is>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(10.501791, 15.122562)]</t>
+          <t>[('0:00:15.300272', '0:00:18.887755')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>[('0:00:07.580000', '0:00:14.560000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1152173913043478</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'E/7']]</t>
-        </is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'E']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(9.201473, 13.148866)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(14.402743, 18.779705)]</t>
+          <t>[('0:01:06.740000', '0:01:30.220000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(16.26, 21.14)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(5.68, 9.64)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:58.680000', '0:01:20.420000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
